--- a/pred_ohlcv/54_21/2019-11-15 ITC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-15 ITC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>320580.2848370376</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>320580.2848370376</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>319073.4574370376</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>319073.4574370376</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>319073.4574370376</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>309832.1622370376</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>312267.1912370376</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>307935.6310370376</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>311314.0429370376</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>311199.0295370376</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>311199.0295370376</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>308848.3312370376</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>320258.3312370376</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>320508.3312370376</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>318087.2887370376</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>326753.4384370376</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>323803.4864370376</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>323822.9420370376</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>311445.2394370376</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>311445.2394370376</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>311445.2394370376</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>310474.2611370376</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>311262.4572370376</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>311262.4572370376</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>300000.5040370376</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>292054.1263370376</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>293602.7080370376</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>293605.9339370376</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>290670.1276370376</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>290666.8381370376</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>292571.9476370375</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>299716.7062370375</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>323457.7523370376</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>330680.3164370376</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>330558.8742370376</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>330558.8742370376</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>322599.8742370376</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>320254.3797370376</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>320258.3797370376</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>388128.0427727064</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>383754.3179727063</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>383754.3179727063</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>374045.2151727063</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>366723.7948727063</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>366723.7948727063</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>367828.2201727064</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>367664.2366727064</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>367889.9590727064</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>361989.9590727064</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>364219.7065727064</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>364079.9508727064</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>364383.7478727064</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>364130.3684727065</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>364130.3684727065</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>364130.3684727065</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>364130.3684727065</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>364130.3684727065</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>364130.3684727065</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>368067.3196727065</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>375067.0222727065</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>456773.3881916413</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>462350.2299916412</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>452155.4380916412</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>473973.7575916412</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>477066.2825916412</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>477066.2825916412</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>464660.4328916412</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>464299.8686916412</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>468857.1665916412</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>468849.1665916412</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>468849.1665916412</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>468849.1665916412</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>468849.1665916412</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>468849.1665916412</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>468849.1665916412</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>468849.1665916412</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>468699.1665916412</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>468699.1665916412</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>469317.9763916412</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>451435.3265916412</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>443333.6253916412</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>443333.6253916412</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>508119.6430916412</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>507712.6680916412</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>507712.6680916412</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>510347.2977916412</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>510347.2977916412</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>510347.2977916412</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>439927.6456916412</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>439927.6456916412</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>439008.1456916412</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>439008.1456916412</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>439067.6982916412</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>439067.6982916412</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>452002.4527916412</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>631906.3223916411</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>612919.6439916411</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>618058.5024916411</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>579770.4378916412</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>580083.5749916412</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>580083.5749916412</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>580083.5749916412</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>559733.7782916413</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>565514.1250916413</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>565529.8371916413</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>565529.8371916413</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>565529.8371916413</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>563426.8780916414</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>549335.1834916413</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>777249.0494701642</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>865336.7941701643</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>846493.9112701643</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>895628.7129701643</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>895628.7129701643</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>895628.7129701643</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>902340.6539701642</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>956706.7269701642</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>931402.1541701643</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>926949.5755701642</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>926949.5755701642</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>2040480.338150083</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>1999885.136550083</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>2001205.396208966</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>2001205.396208966</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>2001205.396208966</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>2080783.006596784</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>2156549.692896784</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>2156549.692896784</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>2156549.692896784</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>2120658.065596784</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>2118155.962596784</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>2141309.362896784</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>2137166.581196784</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>2122474.739896784</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>2127342.509396784</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>2123567.217496783</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>2120856.614496783</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>2120856.614496783</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>2135117.825496783</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>2135117.825496783</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>2134111.524296783</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>2134111.524296783</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>2142523.373696784</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>2142226.189496784</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>2141958.637396784</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>2097064.798696784</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-15 ITC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-15 ITC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>320580.2848370376</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>320580.2848370376</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>319073.4574370376</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>319073.4574370376</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>319073.4574370376</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>309832.1622370376</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>312267.1912370376</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>307935.6310370376</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>311314.0429370376</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>311199.0295370376</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>311199.0295370376</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>308848.3312370376</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>320258.3312370376</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>320508.3312370376</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>318087.2887370376</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>302330.8755370376</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>311126.2284370376</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>311262.4572370376</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>300000.5040370376</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>292054.1263370376</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>293602.7080370376</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>293605.9339370376</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>290670.1276370376</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>290666.8381370376</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>289759.1760370376</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>289759.1760370376</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>292571.9476370375</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>292571.9476370375</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>292264.5210370375</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>284319.2780370375</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>300750.9205370375</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>300744.3415370375</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>300744.3415370375</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>302063.1177370375</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>302063.1177370375</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>298114.7062370375</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>298114.7062370375</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>298114.7062370375</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>299716.7062370375</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>299599.8623370376</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>293632.8313370376</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>299774.1344370376</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>328017.1026370376</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>323457.7523370376</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>330680.3164370376</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>330558.8742370376</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>330558.8742370376</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>330558.8742370376</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>325863.3381370376</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>320661.0099370376</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>321624.9354370376</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>324202.8251370376</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>320254.3797370376</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>320258.3797370376</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>320258.3797370376</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>383691.0265727065</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>456773.3881916413</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>462350.2299916412</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>452155.4380916412</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>473973.7575916412</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>477066.2825916412</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>477066.2825916412</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>464660.4328916412</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>464299.8686916412</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>468857.1665916412</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>468849.1665916412</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>468849.1665916412</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>468849.1665916412</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>468849.1665916412</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>468849.1665916412</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>468849.1665916412</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>468849.1665916412</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>468699.1665916412</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>468699.1665916412</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>469317.9763916412</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>451435.3265916412</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>443333.6253916412</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>443333.6253916412</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>508119.6430916412</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>507712.6680916412</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>507712.6680916412</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>510347.2977916412</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>510347.2977916412</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>510347.2977916412</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>439927.6456916412</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>439927.6456916412</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>439008.1456916412</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>439008.1456916412</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>439067.6982916412</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>439067.6982916412</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>452002.4527916412</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>631906.3223916411</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>612919.6439916411</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>618058.5024916411</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>579770.4378916412</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>580083.5749916412</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>580083.5749916412</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>580083.5749916412</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>559733.7782916413</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>565514.1250916413</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>565529.8371916413</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>565529.8371916413</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>565529.8371916413</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>563426.8780916414</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>549335.1834916413</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>777249.0494701642</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>865336.7941701643</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>846493.9112701643</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>895628.7129701643</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>895628.7129701643</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>895628.7129701643</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>902340.6539701642</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>956706.7269701642</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>931402.1541701643</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>926949.5755701642</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>926949.5755701642</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>1860629.005157362</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>1908397.814057362</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>2023812.400206867</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>1986432.625650083</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>2057846.813750083</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>2057846.813750083</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>2040480.338150083</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>1999885.136550083</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>1949894.618550083</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>1951171.219850083</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>2001350.108150083</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>1965719.872750083</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>1940595.259650083</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>1940595.259650083</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>1904496.375350083</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>1948780.101362266</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>2021538.180162266</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>2017247.864708966</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>2001205.396208966</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>2001205.396208966</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>2001205.396208966</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>2080783.006596784</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>2080783.006596784</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>2156549.692896784</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>2156549.692896784</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>2156549.692896784</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>2120658.065596784</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>2118155.962596784</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>2141309.362896784</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>2137166.581196784</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>2122474.739896784</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>2127342.509396784</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>2123567.217496783</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>2120856.614496783</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>2120856.614496783</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>2135117.825496783</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>2135117.825496783</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>2134111.524296783</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>2134111.524296783</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>2142523.373696784</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>2142226.189496784</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>2141958.637396784</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>2091628.005196783</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
